--- a/documents/#02.基本設計/業務フロー図.xlsx
+++ b/documents/#02.基本設計/業務フロー図.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4A3D74-FAE6-4BC1-BBD0-5D3BF8186854}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A5293C-7CE7-4EB1-A3E7-E0D3AEA4C98E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="600" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="6" r:id="rId1"/>
-    <sheet name="業務フロー1" sheetId="7" r:id="rId2"/>
+    <sheet name="業務フロー図" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー1!$A$1:$BU$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">業務フロー図!$A$1:$BU$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$101</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">業務フロー1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">業務フロー図!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">原紙!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -106,20 +106,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇図</t>
+    <t>〇〇設計</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇設計</t>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
+    <t>システムID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>基本</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
+    <t>○○図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本設計</t>
+    <rPh sb="0" eb="4">
+      <t>キホンセッケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -161,54 +168,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>利用者が、会社内の本棚から借りたい本を探す。</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホンダナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>借りたい本が見つかったら、利用者は、蔵書の管理帳に借用記録を記載する。</t>
-    <rPh sb="13" eb="16">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゾウショ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シャクヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本を借りるまで</t>
@@ -219,16 +180,99 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>CLibrary Systemにログインする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索画面を開き、借りたい本を検索する。</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索結果一覧から、借りたい本の詳細リンクをクリックする。</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>詳細・予約登録画面に遷移後、借用予約ボタンを押下する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャクヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予約フォームを入力し、確定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>本を返すまでのフロー</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -296,10 +340,6 @@
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;補足&gt;</t>
@@ -518,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -743,17 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -958,17 +987,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1000,6 +1018,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1007,7 +1036,126 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1017,124 +1165,17 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1143,25 +1184,76 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,7 +1262,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,7 +1277,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,113 +1286,68 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1338,7 +1385,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40151F1-9A6E-465D-9415-0FD50AEDBDB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C41D16-B70D-4A97-AE7C-FBD3F11A3C79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,8 +1393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="450272" y="10333182"/>
-          <a:ext cx="9559637" cy="334818"/>
+          <a:off x="451427" y="10034732"/>
+          <a:ext cx="9587923" cy="329045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,7 +1460,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92320B6F-2CBA-43A1-9A80-5C04328ABF5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1A1854-3FF2-4738-80DC-9605B2475B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,8 +1468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9975273" y="10263912"/>
-          <a:ext cx="4283363" cy="450270"/>
+          <a:off x="10004137" y="9968926"/>
+          <a:ext cx="4296063" cy="441611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,7 +1535,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 端子 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3710A5D9-5606-4409-8844-AC87E76AA810}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9964E7C6-599C-4150-8F99-7F007260CD0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,8 +1543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="602425" y="11060545"/>
-          <a:ext cx="1681100" cy="365950"/>
+          <a:off x="604157" y="10751127"/>
+          <a:ext cx="1685718" cy="354404"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1554,7 +1601,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 端子 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B919A1BF-CC3F-4D5D-97AD-E28E8454456A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A6A66A-1ED6-4089-99C3-CBB5D391BE0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,8 +1609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5775200" y="12457829"/>
-          <a:ext cx="1895104" cy="461536"/>
+          <a:off x="5791941" y="12102229"/>
+          <a:ext cx="1900877" cy="449991"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1620,7 +1667,7 @@
         <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714D4BF3-CDFB-46EC-AF55-23A22CC97383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D5D8D1-26EA-4375-9049-92C9CB799EB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,8 +1678,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3388821" y="10302218"/>
-          <a:ext cx="443818" cy="4328939"/>
+          <a:off x="3407871" y="9943154"/>
+          <a:ext cx="426500" cy="4341639"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1677,7 +1724,7 @@
         <xdr:cNvPr id="7" name="フローチャート: 内部記憶 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCD2F31-5BB2-4F64-A73F-E2A090E13378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92ACCFC-CF97-4704-811A-17E7BC19FCF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,8 +1732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5579753" y="13612919"/>
-          <a:ext cx="2285999" cy="841014"/>
+          <a:off x="5595917" y="13228455"/>
+          <a:ext cx="2292926" cy="812151"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInternalStorage">
           <a:avLst/>
@@ -1750,7 +1797,7 @@
         <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4FCE2C-F498-4822-8529-2277369F01F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB1F419-840B-4D37-8D86-C20DA5CFBB83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,8 +1808,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6375975" y="13266141"/>
-          <a:ext cx="693554" cy="1"/>
+          <a:off x="6404261" y="12890337"/>
+          <a:ext cx="676235" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1810,7 +1857,7 @@
         <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F44A0F-F53A-4CDB-8A92-E75D9E3A9D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41218010-1804-410F-AE51-7B271588D1DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,8 +1868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1205463" y="11664007"/>
-          <a:ext cx="478311" cy="3286"/>
+          <a:off x="1218163" y="11334384"/>
+          <a:ext cx="460993" cy="3286"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1869,7 +1916,7 @@
         <xdr:cNvPr id="10" name="フローチャート: 端子 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D601C06-A117-43EC-B92E-3C88CC92B66D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0190A320-FBD8-4B01-837C-BDFF43E7BAD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,8 +1924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="399482" y="11904806"/>
-          <a:ext cx="2093558" cy="339973"/>
+          <a:off x="400637" y="11566524"/>
+          <a:ext cx="2099330" cy="334200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1935,7 +1982,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EAD713-A761-46AE-8B46-5C021BE243D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5172483F-3C96-413D-B783-1887AA650053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,8 +1990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6808518" y="13007609"/>
-          <a:ext cx="2121066" cy="441767"/>
+          <a:off x="6828145" y="12640464"/>
+          <a:ext cx="2127416" cy="424448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,7 +2057,7 @@
         <xdr:cNvPr id="12" name="直方体 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B4EB6F-A6D3-4588-85F1-1A1A5D2EC69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0FC8DA-10B6-4C95-BA15-60A61724353E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,8 +2065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11407732" y="11335987"/>
-          <a:ext cx="1670793" cy="1157018"/>
+          <a:off x="11441214" y="11015023"/>
+          <a:ext cx="1675411" cy="1122382"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -2083,7 +2130,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F744FA5-F088-4769-A503-EE69301E3800}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B059B166-EA6A-4CB4-908B-DF6746413EAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,8 +2141,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2493040" y="12059123"/>
-          <a:ext cx="8914692" cy="15670"/>
+          <a:off x="2499967" y="11715068"/>
+          <a:ext cx="8941247" cy="15670"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2141,7 +2188,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D9EE2C-62C1-45F5-BFF3-B68796B78C7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE80D5D-A1C2-436A-9D43-6B256160AC1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,8 +2196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933700" y="11587518"/>
-          <a:ext cx="2754416" cy="359554"/>
+          <a:off x="3945245" y="11260782"/>
+          <a:ext cx="2762498" cy="348008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2216,7 +2263,7 @@
         <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD3245B-4279-4AFA-B7B7-37340C9D544F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD81D85B-742C-4EAA-BBAE-19D0221AB32A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,8 +2274,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1443593" y="12244779"/>
-          <a:ext cx="2668" cy="2359191"/>
+          <a:off x="1447634" y="11900724"/>
+          <a:ext cx="2668" cy="2283569"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2274,7 +2321,7 @@
         <xdr:cNvPr id="16" name="フローチャート: 端子 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66EF7696-1090-4BC3-8635-FBBE83BF73C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DA1D59-4025-468F-8968-EF2E6A394460}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,8 +2329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392545" y="14603970"/>
-          <a:ext cx="2102096" cy="460375"/>
+          <a:off x="393700" y="14184293"/>
+          <a:ext cx="2107868" cy="449407"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -2340,7 +2387,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DF07E6-A820-4A81-BFEE-D3582A0EC6CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9112D3-DE93-4F4A-A835-73E38F791C2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,8 +2395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1486063" y="13734972"/>
-          <a:ext cx="2121066" cy="441767"/>
+          <a:off x="1490104" y="13344736"/>
+          <a:ext cx="2127416" cy="430221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,7 +2462,7 @@
         <xdr:cNvPr id="18" name="フローチャート: 端子 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77733159-1AA2-4CDE-BB43-01D94DAA0BAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F3A4D1-98A8-4CF2-A2D3-D5AD2CE1B1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,8 +2470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5597070" y="15440681"/>
-          <a:ext cx="2251364" cy="453288"/>
+          <a:off x="5613234" y="14998490"/>
+          <a:ext cx="2257714" cy="441743"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -2481,7 +2528,7 @@
         <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C61BD9-FF8B-441E-8378-95590CACCCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A7B89E-35F5-4A83-B3EB-54FE3D9E5DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,8 +2539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3218841" y="13289096"/>
-          <a:ext cx="602980" cy="4153477"/>
+          <a:off x="3237602" y="12843731"/>
+          <a:ext cx="585661" cy="4165600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2538,7 +2585,7 @@
         <xdr:cNvPr id="20" name="フローチャート: 内部記憶 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9947678A-962F-448D-AD48-4F670A826C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0C0BA4-EE12-4399-9E94-E6391AE0AB06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,8 +2593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5579753" y="16684011"/>
-          <a:ext cx="2285999" cy="841014"/>
+          <a:off x="5595917" y="16207184"/>
+          <a:ext cx="2292926" cy="817923"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInternalStorage">
           <a:avLst/>
@@ -2611,7 +2658,7 @@
         <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1ADFB2-B202-487E-8995-F19F1335847C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072BF89B-DE21-421E-8B94-1D0CAAF0CD15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,8 +2666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6808518" y="16044065"/>
-          <a:ext cx="2121066" cy="441767"/>
+          <a:off x="6828145" y="15584556"/>
+          <a:ext cx="2127416" cy="430221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,7 +2733,7 @@
         <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13205B44-6C55-4630-8990-3BF5ECCF641E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F813489-3F14-4E23-A197-7C0036C698A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,8 +2744,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6327731" y="16288989"/>
-          <a:ext cx="790042" cy="1"/>
+          <a:off x="6358903" y="15823708"/>
+          <a:ext cx="766951" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2746,7 +2793,7 @@
         <xdr:cNvPr id="23" name="直方体 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EFC473-C599-4CF3-A194-1FB4B1506569}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142125F8-7F23-41E7-ACDE-9F5775569365}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,8 +2801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11362375" y="14082980"/>
-          <a:ext cx="1758208" cy="1200727"/>
+          <a:off x="11395280" y="13681198"/>
+          <a:ext cx="1763403" cy="1166091"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst/>
@@ -2819,7 +2866,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22EF2AE3-16E7-49A0-8073-4626E4742455}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070A7516-0FFB-4208-BAD0-D9AE8440F075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,8 +2877,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2494641" y="14833434"/>
-          <a:ext cx="8867734" cy="724"/>
+          <a:off x="2501568" y="14408561"/>
+          <a:ext cx="8893712" cy="724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2877,7 +2924,7 @@
         <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94B34D4-CCBD-4A34-9D34-CC4083FB79FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07AF784-3E46-4033-9E88-D2FE44A63C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,8 +2932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3933700" y="14889518"/>
-          <a:ext cx="2754416" cy="359554"/>
+          <a:off x="3945245" y="14464645"/>
+          <a:ext cx="2762498" cy="348009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3206,7 +3253,7 @@
   <dimension ref="A1:BU101"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:V5"/>
+      <selection activeCell="AT4" sqref="AT4:BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -3289,81 +3336,81 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="58" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
       <c r="BQ2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3374,239 +3421,241 @@
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="15" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
       <c r="BU3" s="6"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="31" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -4274,29 +4323,30 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="BQ3:BT5"/>
+  <mergeCells count="20">
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
+    <mergeCell ref="AO2:AS3"/>
     <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
     <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
@@ -4305,14 +4355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B6CBF8-FC03-4C9E-A534-95699FB795F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F03161-F28A-4894-80AC-4F479E6EDDEE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AY60" sqref="AY60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -4395,83 +4445,83 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="58" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
       <c r="BQ2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4482,239 +4532,241 @@
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="15" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
       <c r="BU3" s="6"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="31" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -4799,17 +4851,17 @@
     <row r="8" spans="1:73">
       <c r="A8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BU8" s="6"/>
     </row>
     <row r="9" spans="1:73">
       <c r="A9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BU9" s="6"/>
     </row>
@@ -4820,17 +4872,17 @@
     <row r="11" spans="1:73">
       <c r="A11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BU11" s="6"/>
     </row>
     <row r="12" spans="1:73">
       <c r="A12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
@@ -4840,55 +4892,55 @@
     <row r="13" spans="1:73">
       <c r="A13" s="4"/>
       <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="BU13" s="6"/>
     </row>
     <row r="14" spans="1:73">
       <c r="A14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BU14" s="6"/>
     </row>
     <row r="15" spans="1:73">
       <c r="A15" s="4"/>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="BU15" s="6"/>
     </row>
     <row r="16" spans="1:73">
       <c r="A16" s="4"/>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="BU16" s="6"/>
     </row>
     <row r="17" spans="1:73">
       <c r="A17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BU17" s="6"/>
     </row>
     <row r="18" spans="1:73">
       <c r="A18" s="4"/>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="BU18" s="6"/>
     </row>
     <row r="19" spans="1:73">
@@ -4897,218 +4949,188 @@
     </row>
     <row r="20" spans="1:73">
       <c r="A20" s="4"/>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="BU20" s="6"/>
     </row>
     <row r="21" spans="1:73">
       <c r="A21" s="4"/>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="BU21" s="6"/>
     </row>
     <row r="22" spans="1:73">
       <c r="A22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BU22" s="6"/>
     </row>
     <row r="23" spans="1:73">
       <c r="A23" s="4"/>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="BU23" s="6"/>
     </row>
     <row r="24" spans="1:73">
       <c r="A24" s="4"/>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BU24" s="6"/>
     </row>
     <row r="25" spans="1:73">
       <c r="A25" s="4"/>
-      <c r="E25" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="65"/>
       <c r="BU25" s="6"/>
     </row>
     <row r="26" spans="1:73">
       <c r="A26" s="4"/>
-      <c r="E26" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="60"/>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="BU26" s="6"/>
     </row>
     <row r="27" spans="1:73">
       <c r="A27" s="4"/>
-      <c r="E27" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="60"/>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="BU27" s="6"/>
     </row>
     <row r="28" spans="1:73">
       <c r="A28" s="4"/>
-      <c r="E28" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="60"/>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="BU28" s="6"/>
     </row>
     <row r="29" spans="1:73">
       <c r="A29" s="4"/>
-      <c r="E29" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="63"/>
       <c r="BU29" s="6"/>
     </row>
     <row r="30" spans="1:73">
       <c r="A30" s="4"/>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="BU30" s="6"/>
     </row>
     <row r="31" spans="1:73">
       <c r="A31" s="4"/>
+      <c r="E31" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="62"/>
+      <c r="G31" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="62"/>
       <c r="BU31" s="6"/>
     </row>
     <row r="32" spans="1:73">
       <c r="A32" s="4"/>
+      <c r="E32" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="65"/>
+      <c r="P32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="65"/>
       <c r="BU32" s="6"/>
     </row>
     <row r="33" spans="1:73">
       <c r="A33" s="4"/>
+      <c r="E33" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="65"/>
+      <c r="G33" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="65"/>
+      <c r="P33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="65"/>
       <c r="BU33" s="6"/>
     </row>
     <row r="34" spans="1:73">
       <c r="A34" s="4"/>
+      <c r="E34" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="65"/>
+      <c r="P34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z34" s="65"/>
       <c r="BU34" s="6"/>
     </row>
     <row r="35" spans="1:73">
       <c r="A35" s="4"/>
+      <c r="E35" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="67"/>
       <c r="BU35" s="6"/>
     </row>
     <row r="36" spans="1:73">
@@ -5334,7 +5356,7 @@
     </row>
     <row r="56" spans="1:73" ht="15.5" thickBot="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="67"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -5384,7 +5406,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
       <c r="AY56" s="2"/>
-      <c r="AZ56" s="67"/>
+      <c r="AZ56" s="70"/>
       <c r="BA56" s="2"/>
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
@@ -5404,7 +5426,7 @@
       <c r="BQ56" s="2"/>
       <c r="BR56" s="2"/>
       <c r="BS56" s="2"/>
-      <c r="BT56" s="68"/>
+      <c r="BT56" s="71"/>
       <c r="BU56" s="6"/>
     </row>
     <row r="57" spans="1:73">
@@ -5624,7 +5646,7 @@
     </row>
     <row r="100" spans="1:73" ht="15.5" thickBot="1">
       <c r="A100" s="4"/>
-      <c r="AZ100" s="67"/>
+      <c r="AZ100" s="70"/>
       <c r="BU100" s="6"/>
     </row>
     <row r="101" spans="1:73">
@@ -5701,29 +5723,30 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
     <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
-    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
-    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
